--- a/medicine/Pharmacie/Spermicide/Spermicide.xlsx
+++ b/medicine/Pharmacie/Spermicide/Spermicide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les spermicides sont des substances s'attaquant aux spermatozoïdes. Ils sont utilisés à visée contraceptive.
 </t>
@@ -511,7 +523,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ont comme propriété de détruire les spermatozoïdes, ou à défaut de les rendre incapables de pénétrer dans l'ovule en inhibant l'acrosine des spermatozoïdes. Certains spermicides comme le chlorure de benzalkonium classiquement utilisé dans cette indication peuvent aussi avoir une action antiseptique. Cependant, en pratique, il n'y a pas d'efficacité démontrée contre les IST.
 </t>
@@ -542,7 +556,9 @@
           <t>Mode d'utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le spermicide peut se présenter sous plusieurs formes : crèmes, ovules, éponges ou tampons. Il doit être introduit dans le vagin avant tout rapport sexuel.
 Le délai d'action des spermicides diffère selon le spermicide choisi. Il peut être immédiat sous les formes d'éponge ou de crème, et différé pour les formes présentées en ovules le temps que le produit se disperse (5 à 10 minutes).
@@ -574,7 +590,9 @@
           <t>Avantages et inconvénients</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les spermicides sont considérés comme des médicaments. Ils sont disponibles en pharmacie, mais sont toutefois délivrables sans ordonnance.
 Parmi les avantages :
@@ -616,7 +634,9 @@
           <t>Spermicides disponibles en France</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les ovules contraceptifs, citons comme noms commerciaux : Pharmatex capsules, Pharmatex mini-ovules, Pharmatex ovules.
 Parmi les crèmes, citons comme noms commerciaux : Alpagelle, Pharmatex crème.
